--- a/Data/EffectMap.xlsx
+++ b/Data/EffectMap.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectPyxis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0798B9-684F-44D9-9AAA-ADF05B3D28B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74305CB-482B-485F-8154-F547CB208C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Preconditions</t>
   </si>
@@ -55,21 +63,25 @@
   </si>
   <si>
     <t>PROBABILTY</t>
-  </si>
-  <si>
-    <t>displayCD("room-enter", [variableMap["CURRENT_ROOM"].getRoomName()])
-variableMap["JUST_ENTERED"] =0</t>
   </si>
   <si>
     <t>variableMap["JUST_ENTERED"] ==1 
 variableMap["CURRENT_ROOM"].getVisitCount() &gt; 1</t>
   </si>
   <si>
-    <t>displayCD( "game-start",[])</t>
-  </si>
-  <si>
     <t>variableMap["JUST_ENTERED"] ==1 
 variableMap["CURRENT_ROOM"].getVisitCount() &lt;=1</t>
+  </si>
+  <si>
+    <t>displayCD( "game-start",{})</t>
+  </si>
+  <si>
+    <t>displayCD("room-enter", {"roomname":variableMap["CURRENT_ROOM"].getRoomName()})
+variableMap["JUST_ENTERED"] =0</t>
+  </si>
+  <si>
+    <t>displayCD("room-enter",  {"roomname":variableMap["CURRENT_ROOM"].getRoomName()})
+variableMap["JUST_ENTERED"] =0</t>
   </si>
 </sst>
 </file>
@@ -398,16 +410,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="60.88671875" customWidth="1"/>
-    <col min="4" max="4" width="75.5546875" customWidth="1"/>
+    <col min="4" max="4" width="81.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
@@ -446,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -472,10 +482,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>

--- a/Data/EffectMap.xlsx
+++ b/Data/EffectMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectPyxis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74305CB-482B-485F-8154-F547CB208C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA7A9A-0645-4112-8C95-CF23320DF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,23 +65,30 @@
     <t>PROBABILTY</t>
   </si>
   <si>
+    <t>displayCD("room-enter", {"roomname":playerCharacter.getRoom().getRoomName()})
+playerCharacter.getRoom().getDescription()
+playerCharacter.getRoom().getItemDescription()
+playerCharacter.getRoom().addVisit()
+variableMap["JUST_ENTERED"] =0</t>
+  </si>
+  <si>
+    <t>displayCD("room-enter",  {"roomname":playerCharacter.getRoom().getRoomName()})
+playerCharacter.getRoom().addVisit()
+variableMap["JUST_ENTERED"] =0</t>
+  </si>
+  <si>
     <t>variableMap["JUST_ENTERED"] ==1 
-variableMap["CURRENT_ROOM"].getVisitCount() &gt; 1</t>
+playerCharacter.getRoom().getVisitCount() &lt;1</t>
   </si>
   <si>
     <t>variableMap["JUST_ENTERED"] ==1 
-variableMap["CURRENT_ROOM"].getVisitCount() &lt;=1</t>
-  </si>
-  <si>
-    <t>displayCD( "game-start",{})</t>
-  </si>
-  <si>
-    <t>displayCD("room-enter", {"roomname":variableMap["CURRENT_ROOM"].getRoomName()})
-variableMap["JUST_ENTERED"] =0</t>
-  </si>
-  <si>
-    <t>displayCD("room-enter",  {"roomname":variableMap["CURRENT_ROOM"].getRoomName()})
-variableMap["JUST_ENTERED"] =0</t>
+playerCharacter.getRoom().getVisitCount() &gt;= 1</t>
+  </si>
+  <si>
+    <t>displayCD("room-enter", {"roomname":playerCharacter.getRoom().getRoomName()})
+playerCharacter.getRoom().getDescription()
+playerCharacter.getRoom().getItemDescription()
+playerCharacter.getRoom().addVisit()</t>
   </si>
 </sst>
 </file>
@@ -410,13 +417,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
     <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.88671875" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" customWidth="1"/>
     <col min="4" max="4" width="81.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" customWidth="1"/>
@@ -448,7 +457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>900001</v>
       </c>
@@ -456,10 +465,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -474,7 +483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>900002</v>
       </c>
@@ -482,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -500,15 +509,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>900003</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>

--- a/Data/EffectMap.xlsx
+++ b/Data/EffectMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectPyxis\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranjalmahajan/Desktop/AI project/ProjectPyxis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA7A9A-0645-4112-8C95-CF23320DF08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506A7343-57EE-FF4A-8CFA-AB21695810B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Preconditions</t>
   </si>
@@ -89,6 +88,76 @@
 playerCharacter.getRoom().getDescription()
 playerCharacter.getRoom().getItemDescription()
 playerCharacter.getRoom().addVisit()</t>
+  </si>
+  <si>
+    <t>user-death-by-knife</t>
+  </si>
+  <si>
+    <t>displayCD("user-death-by-weapon", {"weaponname":"Knife"})
+displayCD("game-end", {})</t>
+  </si>
+  <si>
+    <t>user-death-by-gun</t>
+  </si>
+  <si>
+    <t>npc-puts-batteries-pod</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("Batteries")
+npcCharacter.getRoom().getRoomName()=="Pod room"</t>
+  </si>
+  <si>
+    <t>variableMap["ESCAPEPOD_ACTIVE"] =True
+npcCharacter.removeObject("Batteries")</t>
+  </si>
+  <si>
+    <t>displayCD("user-death-by-weapon", {"weaponname":"Gun"})
+displayCD("game-end", {})</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("Knife")
+npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()
+npcCharacter.getAttribute("resentment")&gt;80</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("Gun")
+npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()
+npcCharacter.getAttribute("resentment")&gt;80</t>
+  </si>
+  <si>
+    <t>npc-death-by-knife</t>
+  </si>
+  <si>
+    <t>npc-death-by-gun</t>
+  </si>
+  <si>
+    <t>displayCD("npc-suicide-by-weapon", {"weaponname":"Gun"})
+displayCD("game-end", {})</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("Knife")
+npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()
+npcCharacter.getAttribute("resentment")&lt;20</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("Gun")
+npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()
+npcCharacter.getAttribute("resentment")&lt;20</t>
+  </si>
+  <si>
+    <t>npc-escapes-by-pod</t>
+  </si>
+  <si>
+    <t>displayCD("npc-escapes-by-pod", {"devicename":"Escape Pod"})
+displayCD("game-end", {})</t>
+  </si>
+  <si>
+    <t>variableMap["ESCAPEPOD_ACTIVE"] ==True
+npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()</t>
+  </si>
+  <si>
+    <t>displayCD("user-suicide-by-weapon", {"weaponname":"Knife"},playerCharacter.getName())
+displayCD("game-end", {})</t>
   </si>
 </sst>
 </file>
@@ -415,23 +484,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="111" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="4" width="81.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -457,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>900001</v>
       </c>
@@ -483,7 +551,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>900002</v>
       </c>
@@ -509,7 +577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>900003</v>
       </c>
@@ -532,7 +600,144 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/EffectMap.xlsx
+++ b/Data/EffectMap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranjalmahajan/Desktop/AI project/ProjectPyxis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506A7343-57EE-FF4A-8CFA-AB21695810B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659C8618-2FF3-274A-905D-190EE17B83C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,12 +152,12 @@
 displayCD("game-end", {})</t>
   </si>
   <si>
-    <t>variableMap["ESCAPEPOD_ACTIVE"] ==True
-npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()</t>
-  </si>
-  <si>
     <t>displayCD("user-suicide-by-weapon", {"weaponname":"Knife"},playerCharacter.getName())
 displayCD("game-end", {})</t>
+  </si>
+  <si>
+    <t>variableMap["ESCAPEPOD_ACTIVE"] ==True
+npcCharacter.getRoom().getRoomName()=="Pod room"</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="111" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,7 +654,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>

--- a/Data/EffectMap.xlsx
+++ b/Data/EffectMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pranjalmahajan/Desktop/AI project/ProjectPyxis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\Github\ProjectPyxis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659C8618-2FF3-274A-905D-190EE17B83C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD9E26D-1875-4157-9868-57384A9D16FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>Preconditions</t>
   </si>
@@ -62,102 +62,131 @@
   </si>
   <si>
     <t>PROBABILTY</t>
+  </si>
+  <si>
+    <t>variableMap["JUST_ENTERED"] ==1 
+playerCharacter.getRoom().getVisitCount() &lt;1</t>
+  </si>
+  <si>
+    <t>variableMap["JUST_ENTERED"] ==1 
+playerCharacter.getRoom().getVisitCount() &gt;= 1</t>
+  </si>
+  <si>
+    <t>user-death-by-knife</t>
+  </si>
+  <si>
+    <t>user-death-by-gun</t>
+  </si>
+  <si>
+    <t>npc-puts-batteries-pod</t>
+  </si>
+  <si>
+    <t>npc-death-by-knife</t>
+  </si>
+  <si>
+    <t>npc-death-by-gun</t>
+  </si>
+  <si>
+    <t>npc-escapes-by-pod</t>
+  </si>
+  <si>
+    <t>variableMap["ESCAPEPOD_ACTIVE"] ==True
+npcCharacter.getRoom().getRoomName()=="Pod room"</t>
   </si>
   <si>
     <t>displayCD("room-enter", {"roomname":playerCharacter.getRoom().getRoomName()})
 playerCharacter.getRoom().getDescription()
 playerCharacter.getRoom().getItemDescription()
+playerCharacter.getRoom().getNodeDescription()
 playerCharacter.getRoom().addVisit()
+npcintheroom()
 variableMap["JUST_ENTERED"] =0</t>
-  </si>
-  <si>
-    <t>displayCD("room-enter",  {"roomname":playerCharacter.getRoom().getRoomName()})
-playerCharacter.getRoom().addVisit()
-variableMap["JUST_ENTERED"] =0</t>
-  </si>
-  <si>
-    <t>variableMap["JUST_ENTERED"] ==1 
-playerCharacter.getRoom().getVisitCount() &lt;1</t>
-  </si>
-  <si>
-    <t>variableMap["JUST_ENTERED"] ==1 
-playerCharacter.getRoom().getVisitCount() &gt;= 1</t>
   </si>
   <si>
     <t>displayCD("room-enter", {"roomname":playerCharacter.getRoom().getRoomName()})
 playerCharacter.getRoom().getDescription()
 playerCharacter.getRoom().getItemDescription()
+playerCharacter.getRoom().getNodeDescription()
+npcintheroom()
 playerCharacter.getRoom().addVisit()</t>
   </si>
   <si>
-    <t>user-death-by-knife</t>
-  </si>
-  <si>
-    <t>displayCD("user-death-by-weapon", {"weaponname":"Knife"})
-displayCD("game-end", {})</t>
-  </si>
-  <si>
-    <t>user-death-by-gun</t>
-  </si>
-  <si>
-    <t>npc-puts-batteries-pod</t>
-  </si>
-  <si>
-    <t>npcCharacter.hasObject("Batteries")
+    <t>displayCD("room-enter",  {"roomname":playerCharacter.getRoom().getRoomName()})
+playerCharacter.getRoom().getItemDescription()
+playerCharacter.getRoom().getNodeDescription()
+playerCharacter.getRoom().addVisit()
+npcintheroom()
+variableMap["JUST_ENTERED"] =0</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("batteries")
 npcCharacter.getRoom().getRoomName()=="Pod room"</t>
   </si>
   <si>
+    <t>npc-movement</t>
+  </si>
+  <si>
+    <t>npcCharacter.move("nwse"[randrange(4)])</t>
+  </si>
+  <si>
+    <t>npc-pick-item</t>
+  </si>
+  <si>
     <t>variableMap["ESCAPEPOD_ACTIVE"] =True
-npcCharacter.removeObject("Batteries")</t>
-  </si>
-  <si>
-    <t>displayCD("user-death-by-weapon", {"weaponname":"Gun"})
-displayCD("game-end", {})</t>
-  </si>
-  <si>
-    <t>npcCharacter.hasObject("Knife")
+npcCharacter.removeObject("batteries")</t>
+  </si>
+  <si>
+    <t>displayCD("user-death-by-knife", {"npcname":npcCharacter.getName()})
+displayCD("game-end", {})
+variableMap["GAME_ACTIVE"]=False</t>
+  </si>
+  <si>
+    <t>displayCD("user-death-by-gun", {"npcname":npcCharacter.getName()})
+displayCD("game-end", {})
+variableMap["GAME_ACTIVE"]=False</t>
+  </si>
+  <si>
+    <t>displayCD("npc-suicide-by-knife", {"npcname":npcCharacter.getName()})
+displayCD("game-end", {})
+variableMap["GAME_ACTIVE"]=False</t>
+  </si>
+  <si>
+    <t>displayCD("npc-suicide-by-gun", {"npcname":npcCharacter.getName()})
+displayCD("game-end", {})
+variableMap["GAME_ACTIVE"]=False</t>
+  </si>
+  <si>
+    <t>displayCD("npc-escapes-by-pod", {"npcname":npcCharacter.getName()})
+displayCD("game-end", {})
+variableMap["GAME_ACTIVE"]=False</t>
+  </si>
+  <si>
+    <t>len(npcCharacter.getRoom().inv)&gt;0
+len(npcCharacter.inv)==0</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("knife")
 npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()
-npcCharacter.getAttribute("resentment")&gt;80</t>
-  </si>
-  <si>
-    <t>npcCharacter.hasObject("Gun")
+npcCharacter.getAttribute("resentment")&gt;0</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("gun")
 npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()
-npcCharacter.getAttribute("resentment")&gt;80</t>
-  </si>
-  <si>
-    <t>npc-death-by-knife</t>
-  </si>
-  <si>
-    <t>npc-death-by-gun</t>
-  </si>
-  <si>
-    <t>displayCD("npc-suicide-by-weapon", {"weaponname":"Gun"})
-displayCD("game-end", {})</t>
-  </si>
-  <si>
-    <t>npcCharacter.hasObject("Knife")
+npcCharacter.getAttribute("resentment")&gt;0</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("knife")
 npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()
-npcCharacter.getAttribute("resentment")&lt;20</t>
-  </si>
-  <si>
-    <t>npcCharacter.hasObject("Gun")
+npcCharacter.getAttribute("resentment")&lt;100</t>
+  </si>
+  <si>
+    <t>npcCharacter.hasObject("gun")
 npcCharacter.getRoom().getRoomName()==playerCharacter.getRoom().getRoomName()
-npcCharacter.getAttribute("resentment")&lt;20</t>
-  </si>
-  <si>
-    <t>npc-escapes-by-pod</t>
-  </si>
-  <si>
-    <t>displayCD("npc-escapes-by-pod", {"devicename":"Escape Pod"})
-displayCD("game-end", {})</t>
-  </si>
-  <si>
-    <t>displayCD("user-suicide-by-weapon", {"weaponname":"Knife"},playerCharacter.getName())
-displayCD("game-end", {})</t>
-  </si>
-  <si>
-    <t>variableMap["ESCAPEPOD_ACTIVE"] ==True
-npcCharacter.getRoom().getRoomName()=="Pod room"</t>
+npcCharacter.getAttribute("resentment")&lt;100</t>
+  </si>
+  <si>
+    <t>npcCharacter.pick(npcCharacter.getRoom().inv[randrange(len(npcCharacter.getRoom().inv))])
+print("npc has picked",npcCharacter.inv)</t>
   </si>
 </sst>
 </file>
@@ -484,22 +513,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="4" width="81.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="75.88671875" customWidth="1"/>
+    <col min="4" max="4" width="83.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -525,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>900001</v>
       </c>
@@ -533,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -551,7 +581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>900002</v>
       </c>
@@ -559,10 +589,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -577,7 +607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>900003</v>
       </c>
@@ -585,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -600,15 +630,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>900004</v>
+      </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -623,15 +656,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>900005</v>
+      </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -646,15 +682,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>900006</v>
+      </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -669,15 +708,18 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>900007</v>
+      </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -692,50 +734,106 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>900008</v>
+      </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>900009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>900010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>900011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>80</v>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
